--- a/results/merge/Results Countries.xlsx
+++ b/results/merge/Results Countries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/CovidLongitudinal-main/code/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59731C78-6E94-AB45-8907-B54D276131DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC85F9F-5440-E94C-902C-9B8AB002BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,7 +1393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1403,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1453,6 +1465,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1773,7 +1787,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2136,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C4" t="s">
@@ -2158,7 +2172,7 @@
       <c r="M4" s="1">
         <v>18.721559524536133</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="6">
         <v>26.520694732666016</v>
       </c>
       <c r="O4" s="1">

--- a/results/merge/Results Countries.xlsx
+++ b/results/merge/Results Countries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/CovidLongitudinal-main/code/merge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Documents/GitHub/CovidLongitudinalResults/results/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC85F9F-5440-E94C-902C-9B8AB002BC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875999D-31F0-B445-8BB6-534832F33A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,7 +1393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,12 +1409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,7 +1460,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,10 +1778,10 @@
   <dimension ref="A1:AN192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/results/merge/Results Countries.xlsx
+++ b/results/merge/Results Countries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Documents/GitHub/CovidLongitudinalResults/results/merge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farshadpourmalek/Downloads/CovidLongitudinal-main/code/merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875999D-31F0-B445-8BB6-534832F33A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD053663-9C95-2C4E-A77A-C3593E1F73E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="14140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,7 +1393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,6 +1409,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1460,6 +1466,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1781,7 +1788,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:P4"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2163,10 +2170,10 @@
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="6">
         <v>18.721559524536133</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>26.520694732666016</v>
       </c>
       <c r="O4" s="1">
